--- a/Src/Data/Tables/SpawnRuleDefine.xlsx
+++ b/Src/Data/Tables/SpawnRuleDefine.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62411\Project\UnityProject\MyMmorpg\Src\Data\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7413C-66B9-4BC3-9BA9-8EBCC307FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="29175" tabRatio="599"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="23040" windowHeight="13490" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>帅怪周期（秒）</t>
   </si>
@@ -65,14 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -104,231 +104,73 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -350,150 +192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,262 +218,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -778,101 +240,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="差 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle name="差 2" xfId="50"/>
-    <cellStyle name="常规 10" xfId="51"/>
-    <cellStyle name="常规 11" xfId="52"/>
-    <cellStyle name="常规 13" xfId="53"/>
-    <cellStyle name="常规 2 2" xfId="54"/>
-    <cellStyle name="常规 2 2 5" xfId="55"/>
-    <cellStyle name="常规 3" xfId="56"/>
-    <cellStyle name="常规 7" xfId="57"/>
-    <cellStyle name="常规 8" xfId="58"/>
-    <cellStyle name="好 2" xfId="59"/>
-    <cellStyle name="适中 2" xfId="60"/>
+    <cellStyle name="常规 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 11" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 13" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 7" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 8" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="好 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="适中 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -886,14 +342,14 @@
     </dxf>
     <dxf>
       <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="9"/>
         <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -908,48 +364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -961,22 +375,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H11" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:H11" totalsRowShown="0">
+  <autoFilter ref="A3:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Key" dataDxfId="0"/>
-    <tableColumn id="3" name="Key1" dataDxfId="1"/>
-    <tableColumn id="2" name="ID" dataDxfId="2"/>
-    <tableColumn id="4" name="MapID" dataDxfId="3"/>
-    <tableColumn id="9" name="SpawnMonConfigID" dataDxfId="4"/>
-    <tableColumn id="8" name="SpawnLevel" dataDxfId="5"/>
-    <tableColumn id="5" name="SpawnPeriod" dataDxfId="6"/>
-    <tableColumn id="6" name="SpawnPoint" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Key1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MapID" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SpawnMonConfigID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SpawnLevel" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SpawnPeriod" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SpawnPoint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1263,29 +680,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.8571428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7142857142857" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.2857142857143" style="3"/>
+    <col min="4" max="4" width="19.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="16.26953125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1297,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="3:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1369,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:8">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1392,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:8">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1415,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -1427,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1439,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1465,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>2</v>
@@ -1489,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>3</v>
@@ -1501,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1513,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>4</v>
@@ -1538,9 +956,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
